--- a/3_Extinction.xlsx
+++ b/3_Extinction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/scro4410_ox_ac_uk/Documents/2023 – NAP Study/TCET_Task/V3_3Faces/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/scro4410_ox_ac_uk/Documents/2023 – NAP Study/TCET_Task/TCET_Sharif/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{113F1675-DBBC-1145-82B8-8CEB0887BC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{887FFAFF-AC0E-664F-85A7-51FA2B7F15F7}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{113F1675-DBBC-1145-82B8-8CEB0887BC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72AB4545-3F2F-184E-AA13-5EAB75DFC285}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
   </bookViews>
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -134,8 +134,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,6 +149,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,8 +455,8 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -476,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -484,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -492,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -500,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -508,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -516,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -524,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -532,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -540,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -548,47 +550,47 @@
         <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="6">
-        <v>0.4</v>
+      <c r="B12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.4</v>
+      <c r="B13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6">
-        <v>0.4</v>
+      <c r="B14" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6">
-        <v>0.4</v>
+      <c r="B15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6">
-        <v>0.4</v>
+      <c r="B16" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -596,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -604,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -612,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -620,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="4">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -628,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="4">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -636,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="4">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -644,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -652,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="4">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -660,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="4">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -668,47 +670,47 @@
         <v>3</v>
       </c>
       <c r="B26" s="4">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="7">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="7">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="7">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="7">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="7">
-        <v>-0.1</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -716,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -724,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -732,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -740,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -748,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -756,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -764,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -772,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -780,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -788,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -796,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -804,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -812,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -820,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -828,22 +830,31 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B47" s="1">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -852,18 +863,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1051,25 +1062,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D0AC84-39CA-4E8F-AEC8-2A8899D713BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="64b0b0ad-49a7-4b34-8eba-9a240439451d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D0AC84-39CA-4E8F-AEC8-2A8899D713BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="64b0b0ad-49a7-4b34-8eba-9a240439451d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/3_Extinction.xlsx
+++ b/3_Extinction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/scro4410_ox_ac_uk/Documents/2023 – NAP Study/TCET_Task/TCET_Sharif/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{113F1675-DBBC-1145-82B8-8CEB0887BC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72AB4545-3F2F-184E-AA13-5EAB75DFC285}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{113F1675-DBBC-1145-82B8-8CEB0887BC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7730A5E4-149F-4B7C-BA42-C43D32955E0F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="13152" xr2:uid="{840F1883-2516-9F4C-8486-14A69ACDE5E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,13 +70,6 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,7 +126,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,10 +142,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,17 +444,17 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.1640625" style="1"/>
+    <col min="2" max="16384" width="11.1484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="18.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -473,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="3" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -481,7 +470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="3" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -489,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -497,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -505,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" s="3" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -513,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -521,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" s="3" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -529,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" s="3" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -537,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="3" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -545,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" s="3" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -553,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" s="3" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
@@ -561,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="3" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -569,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" s="3" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
@@ -577,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" s="3" customFormat="1">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
@@ -585,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" s="3" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
@@ -593,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
@@ -601,7 +590,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -609,7 +598,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -617,7 +606,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
@@ -625,7 +614,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
@@ -633,7 +622,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
@@ -641,7 +630,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -649,7 +638,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -657,7 +646,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -665,7 +654,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -673,7 +662,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
@@ -681,7 +670,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
@@ -689,7 +678,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
@@ -697,7 +686,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -705,7 +694,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -713,7 +702,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" s="3" customFormat="1">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -721,7 +710,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" s="3" customFormat="1">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -729,7 +718,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" s="3" customFormat="1">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
@@ -737,7 +726,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" s="3" customFormat="1">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -745,7 +734,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" s="3" customFormat="1">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -753,7 +742,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="3" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -761,7 +750,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="3" customFormat="1">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -769,7 +758,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="3" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -777,7 +766,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="3" customFormat="1">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -785,7 +774,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" s="3" customFormat="1">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -793,7 +782,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" s="3" customFormat="1">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -801,7 +790,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" s="3" customFormat="1">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -809,7 +798,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" s="3" customFormat="1">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
@@ -817,7 +806,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" s="3" customFormat="1">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -825,7 +814,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" s="3" customFormat="1">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -833,7 +822,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -841,7 +830,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,7 +838,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,25 +848,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DCC15C826F9CD04C984C1E59D79D0BF3" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4323ffbe69f4456b442358682c62cfba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64b0b0ad-49a7-4b34-8eba-9a240439451d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94ec3c4b7e8ae219eb184f3ca94c286d" ns2:_="">
     <xsd:import namespace="64b0b0ad-49a7-4b34-8eba-9a240439451d"/>
@@ -1061,31 +1036,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D0AC84-39CA-4E8F-AEC8-2A8899D713BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="64b0b0ad-49a7-4b34-8eba-9a240439451d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67E7708E-A211-4EE7-B9CF-C271F86B84FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1101,4 +1067,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C85C343-499D-4BC7-9B8F-D9E582CC8DDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D0AC84-39CA-4E8F-AEC8-2A8899D713BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="64b0b0ad-49a7-4b34-8eba-9a240439451d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>